--- a/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/2 PROCEDIMIENTOS  ANALITICOS/12 PROCEDIMIENTOS DE VALORACION DE RIESGOS.xlsx
+++ b/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/2 PROCEDIMIENTOS  ANALITICOS/12 PROCEDIMIENTOS DE VALORACION DE RIESGOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base\2 ESTRATEGIA Y PLAN DE AUDITORIA\2 PROCEDIMIENTOS  ANALITICOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\2 PROCEDIMIENTOS  ANALITICOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19552AB1-F0BC-4E14-8121-5B5DF99742F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA8C68C-5C99-452D-8F17-0EF5DFC3ACB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,7 +709,7 @@
   <dimension ref="B3:M90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +746,7 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="31" t="s">
         <v>48</v>
       </c>
       <c r="E7" s="2"/>
@@ -1206,5 +1206,6 @@
     <mergeCell ref="B3:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>